--- a/OKGH-fileList.xlsx
+++ b/OKGH-fileList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\KUMIO-Protocol-Analysis-Project-Management-WebSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A4EC00-D6B5-4D25-A2F4-D2906CC69B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CEE4A-7156-479E-8402-3B4F8CCCC1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{55EF4403-E1A4-49DD-96BB-25271CCC22E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,36 @@
   </si>
   <si>
     <t>Nasıl anlatırdım, ilk başta yapıyı tanımlamak için büyük bir savunma yapısı derdim. çok büyük kütleli, İstanbuldaki en büyük yapılardan biri derdim. Onun dışında...hikayesinin tarihçesinin çok derin olduğunu çok katmanlı olduğunu ve bunu görebiliyor olduğumu anlatırdım. Onun dışında gezdiğim yerleri anlatıcak, en başta, girişten sonra en yüksek kapıda, yanındaki iki odadan bahsederdim. Yanındaki kapıda korumaların kaldığı...Ardından gezdiğim Hazine Kulesi üstündeki köşkten sonrası geçirdiği dönüşümden bahsederdim yanması vs, içersindeki şeylerin kaldırılması sonra hazinenin saraya geri taşınması, sonra Yılanlı Kuyunun olduğu Kitabe Kulesi, Kitabe Kulesindeki şey...mahkumluk sürecinden, nasıl mahkumların olduğundan bahsederdim. Farklı coğrafyalardan insanların bıraktığı notları anlatırdım. Onun dışında...şey...Kitabe Kulesinin içerisindeki kalan esirlerin katman katman olduğu kaldı aklımda en son. Katman katman katların olduğu sonra bahçıvan hatasıyla yandığı aklımda, onu söyleyebilirim. Başka...Fatih mescidinden bahsederdim. Mescidinde avlunun kullanımını anlatırdım. Avlunun kullanımında yani yeniçerinin nötbet tuttuğu bir yer, o nöbet tuttukları yerde bir paşanın mezarından, sonra bir mescitten, mescit dışında sonra eskiden küçük bir mahalle barındırdığından, farklı yerleri eskiden farklı şekilde kullanıldığından, mezarlık vs. bir tane kuyu bulunduğunu, bunları anlatırdım. Onun dışında Topçu Kulesi, Topçu Kulesinin rampasından bahsederdim. Topları daha rahat getirilmesi adına önceden kullanılan...Ardından başka ne anlatabilirim, yani yoldan bahsederdim, yoldan bahsederken biraz Altın Kapıyla beraber anlatırdım nasıl kullanıldığını. Şehir dışında taa Trakyaya kadar ulaşan yol aksıyla bağlantıda olduğunu, biraz gözün de hayal edilmesi için o ordunun getirdiği hazineyi anlatırdım. Düşünsene adamlar şu kadar şu kadar Bizans ordusu bütün hazineyi buraya getiriyor buradan saraya taşıyorlar... ya da burada depolayarak. Gözümde canlandırdığım kısmıyla betimler anlatırdım herhalde, çünkü o kısım çok etkileyici. Sonra zafer tagı olarak Altın Kapıyı anlatırdım. Altın kapının yan tarafından olan yerin davet için kraliyet için kullanıldığını, büyük fetihler, zaferler kazanan komutanların kapıda törenler düzenlendiğini...bundan bahsederdim. Dışarıdaki tunç kitabeden ardından içerideki şey küçük Altın Kapıdan bahsederdim. Küçük Altın Kapıdaki 12 plakadaki çizimlerden, onu anlatırdım. Şey bir tane kartal var, Altın Kapıdan...küçükten, şey..büyük Altın Kapıdan sol tarafta kartalı gösterirdim. Biraz eski halini hayal ettirmeyi çalışırdım çünkü Osmanlıyla bütünleşmesini nasıl olabilirdi, herhalde bir sohbet olurdu...</t>
+  </si>
+  <si>
+    <t>OKGH_16</t>
+  </si>
+  <si>
+    <t>OKGH_17</t>
+  </si>
+  <si>
+    <t>OKGH_18</t>
+  </si>
+  <si>
+    <t>OKGH_19</t>
+  </si>
+  <si>
+    <t>OKGH_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Öncelikle yapı yani kulelerin içinin gezilebilir olması oldukça ilginçti ve... Ne diyeceğimi bilmiyorum. Şöyle söyleyeyim, bu Yedikule'nin avlusunun öncesinde bir mahalle olduğunu bilmiyordum ve aslında kullandığım Hololens aracılığıyla onu deneyimlemiş oldum ve bu oldukça ilginçti. Ayrıca en çok etkilendiğim genç Osman Kulesi kulesiydi. Bu kulede de yine gözlükle deneyimlemiş olmak daha etkili olduğunu düşünüyorum. Aslında yer ve yön, yer ve yönümü bulmakta pek kolay olmadı çünkü. İlk deneyimledikten sonra hangi kulenin adı neydi tam olarak hatırlayamadım ama Topçu Kulesi ve Genç Osman Kulesini ve Altınkapı'yı unutmadım. Onların isimleri aklımda kaldı. Bir de Kitabe Kulesi'nin ismini hatırlıyorum ama onun konumunu tam olarak hatırlayamıyorum. Eğer birine tarif edecek olursam da. Taş kagir bir yapı olduğundan söz edebilirim. Ve geçmişte avlusunda bir mahalle olduğundan, zindan olarak kullanıldığından söz edebilirim. </t>
+  </si>
+  <si>
+    <t>Bugün burada gerçekten yanlış bildiğim birçok şeyin ya da tahmin ettiğim şeyin doğrusunu öğrendim. Mesela ilk giriş kapısından başladık. Gözlük takarak başladım. Bir sanal gerçeklik gözlüğü olarak geçiyor galiba. Gözlükte hem anlatım vardı, hem efektler vardı, canlandırmalar vardı. Kulelerin içini gezdik teker teker. 7 tane kule mesela. Ben hep dışarıdan gezdiğim için kulelerin sayısını, nerede ne var onları bile bilmiyordum. Kulelerin nerede olduğunu yani isim olarak da zaten geçiyor ama tam olarak öğrendim yani kulelerin içlerinde kuyular olduğunu, gerçekten zamanında bir amaç uğruna, hatta bir sürü birden farklı amaç uğruna kullanıldığını da öğrendim. Kulelerde... Kuleleri gezdik. Kulelerde hatta dizilere bile konu olan Genç Osman'ın öldürüldüğü odayı ben merak ederdim şahsen. O meseleyi oraya nasıl rivayet edildiğini görmüş oldum. Oradaki efektler de yukarıdan, terastan izlediğim ya da avluda gördüğüm şeyler de beni gerçekten etkiledi. Üstelik sadece Osmanlı değil, Bizans, hatta Roma döneminden kalmış olması da iki milletin yaşadığı zamanın farklılıklarını da ayırt etmemize sebep oldu.</t>
+  </si>
+  <si>
+    <t>Burası çok eskiden beri kullanılmış, bu coğrafyada hüküm sürmüş iki büyük imparatorluk tarafından kullanılmış. Gerek zindan olarak gerekse şehre zafer alıp dönmüş imparatorların girişinde şaşalı bir gösteri yapmak için kullanılmış bir mekan. Çeşitli kuleler. Bu kulelerin değişik özellikleri var. Kimisinin içerisinde zindanlar var. Kimisi topların yukarı çıkartılması için kullanılmış. Kimisinde yine keza zindanlar bulunmakta. Yani çeşitli insanların çeşitli şekillerde, çeşitli, nasıl desem koşullarda tutulduğu, zindanların olduğu, oldukça yüksek kulelerin ve kalın surların bulunduğu, büyük kemerlerin güzel geçiş yani güzel geçitlerin bulunduğu tarihi bir yapı olarak aktarırım. Ayrıyeten Kanlı kulenin teras katında oldukça güzel bir İstanbul manzarası sunuyor. Marmara Denizi'ni görmesinden ötürü bu şekilde oldukça güzel bir yer olarak bahsederdim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biz geziye başladıktan sonra buranın aslında gerçekten ne için kullanıldığını öğrenmiş olduk. Sonrasında buranın ortasında bir kasaba olduğunu, bir mahalle olduğunu bilmiyorduk. Bu benim hani böyle halkla içi dışı bir yer olması hoşuma gitti. Onun dışında 7 kulenin 3'ünün Osmanlı Fatih zamanında yapıldığını, geri kalan dördünün Bizans İmparatoru zamanında yapıldığını ve Ortasında bir mescit olduğunu ve mescidin zaferden sonra İstanbul'un fethinden sonra Fatih unvanını alan Fatih'in Fatih adına yaptırıldı. Yapıldığını öğrendim. Mescidin ayrıca İstanbul'daki ilk mescitlerden olduğunu öğrendim. Kuleleri kanlı kulede bir kanlı kuyu olduğunu gördüm. Bu kuyunun içine idam edilen mahkûmların kellesinin atıldığını, Genç Osman'ın burada yeniçeriler tarafından boğularak öldürüldüğünü, Genç Osman kulesinden yine bu kuleye seferden dönen padişahın altın kapıdan şehre giriş yaptığını ve Altın kapının arkasında aslında bir ön giriş gibi, tampon gibi bir Küçük altın kapı olduğunu öğrendim. Gezerken o hissi yaşamak güzel ve bilerek bir şeyler öğrenerek gezmek daha bir farkındalık yaratıyor. Çizimde de açıkçası kafamda oturan planını çizdim. 7 kulelerden bir tanesinin yıkıldığını. Girişte gözlemcilerin kalması için ikişer tane sağlı sollu oda olduğunu. Ve Evliya Çelebi gibi bir sürü bildiğimiz ismin de buraya gelip kaldığını öğrendik. </t>
+  </si>
+  <si>
+    <t>Ben tarihle hiç ilgisi olmayan biri olarak, bu gözlük deneyimi çok hoşuma gitti ve benim çok ilgimi çekti anlatılanlar. Ve buradaki bütün tarihi yapıyı çok detaylı bir şekilde dinlediğimi düşünüyorum. Yılanlardan korktuğum için yılanlar çok ilgimi çekmedi. Ben çok beğendim, çok hoşuma gitti, bence çok iyi bir deneyimdi gözlükten dolayı.</t>
   </si>
 </sst>
 </file>
@@ -487,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8BE8-7532-49E9-9C69-99A017372AC8}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,6 +653,46 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
